--- a/excel_templates/用户表.xlsx
+++ b/excel_templates/用户表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,11 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>是否管理员</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>注册时间</t>
         </is>
       </c>
@@ -511,6 +516,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>2023-12-01</t>
         </is>
       </c>
@@ -551,6 +561,11 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>2023-12-15</t>
         </is>
       </c>
@@ -591,6 +606,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>2023-11-20</t>
         </is>
       </c>
@@ -631,6 +651,11 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>2024-01-05</t>
         </is>
       </c>
@@ -671,6 +696,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>2026-02-06</t>
         </is>
       </c>
@@ -711,6 +741,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>2026-02-06</t>
         </is>
       </c>
@@ -751,6 +786,11 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>2026-02-06</t>
         </is>
       </c>
@@ -790,6 +830,11 @@
         </is>
       </c>
       <c r="H9" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>2026-02-06</t>
         </is>

--- a/excel_templates/用户表.xlsx
+++ b/excel_templates/用户表.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>good</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -696,7 +696,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>summer2</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="F7" t="n">

--- a/excel_templates/用户表.xlsx
+++ b/excel_templates/用户表.xlsx
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>

--- a/excel_templates/用户表.xlsx
+++ b/excel_templates/用户表.xlsx
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>

--- a/excel_templates/用户表.xlsx
+++ b/excel_templates/用户表.xlsx
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
